--- a/simulation_data/iterative_algorithm/i_error_level_8_percent_water_1.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_8_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.40041061765299</v>
+        <v>91.05012365812466</v>
       </c>
       <c r="D2" t="n">
-        <v>9.070268430030261</v>
+        <v>9.004006736264454</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.85532710154162</v>
+        <v>88.86119498771072</v>
       </c>
       <c r="D3" t="n">
-        <v>10.2472183989951</v>
+        <v>8.193150574081493</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.38131670330034</v>
+        <v>87.8149359307352</v>
       </c>
       <c r="D4" t="n">
-        <v>7.809708106597643</v>
+        <v>8.957039082438161</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.38101407238695</v>
+        <v>88.31293849957066</v>
       </c>
       <c r="D5" t="n">
-        <v>8.429899650275434</v>
+        <v>8.351331167204522</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>87.63956885658028</v>
+        <v>86.51879046244642</v>
       </c>
       <c r="D6" t="n">
-        <v>10.09388163930723</v>
+        <v>8.29117581028628</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>82.979818895062</v>
+        <v>85.4710661818324</v>
       </c>
       <c r="D7" t="n">
-        <v>8.168552646720311</v>
+        <v>8.546778751815442</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.39812023093349</v>
+        <v>83.75578465765449</v>
       </c>
       <c r="D8" t="n">
-        <v>9.248216783435321</v>
+        <v>7.757894255366442</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.59348539497476</v>
+        <v>85.07627620626688</v>
       </c>
       <c r="D9" t="n">
-        <v>9.196174025959234</v>
+        <v>7.793463445016335</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.06340633286177</v>
+        <v>80.52799858629906</v>
       </c>
       <c r="D10" t="n">
-        <v>9.528697380392787</v>
+        <v>9.435259715269625</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.5795204510066</v>
+        <v>79.87677451194585</v>
       </c>
       <c r="D11" t="n">
-        <v>9.194079053276837</v>
+        <v>8.285910868797203</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.51148900711182</v>
+        <v>79.91337928182752</v>
       </c>
       <c r="D12" t="n">
-        <v>10.48698178833805</v>
+        <v>8.184549603204863</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.39245537695795</v>
+        <v>79.68582698341096</v>
       </c>
       <c r="D13" t="n">
-        <v>8.930553592831789</v>
+        <v>7.892621708039726</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.00623831145798</v>
+        <v>77.5929440555423</v>
       </c>
       <c r="D14" t="n">
-        <v>9.016167939812549</v>
+        <v>8.165964964415483</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>75.51649917003765</v>
+        <v>77.29474503124042</v>
       </c>
       <c r="D15" t="n">
-        <v>7.928497013754244</v>
+        <v>8.928489535061575</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.00190421989028</v>
+        <v>75.12239265975958</v>
       </c>
       <c r="D16" t="n">
-        <v>9.130980611689868</v>
+        <v>8.601524227026818</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.55095013104325</v>
+        <v>74.28515855715497</v>
       </c>
       <c r="D17" t="n">
-        <v>9.162311743882837</v>
+        <v>7.504934813586867</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.53974003827065</v>
+        <v>73.59018151434314</v>
       </c>
       <c r="D18" t="n">
-        <v>9.073534577780505</v>
+        <v>8.897721950176511</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.93992268411392</v>
+        <v>73.20330944096176</v>
       </c>
       <c r="D19" t="n">
-        <v>8.459107923798578</v>
+        <v>9.567775210793171</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.10397868001029</v>
+        <v>71.55591336850217</v>
       </c>
       <c r="D20" t="n">
-        <v>8.561274388601044</v>
+        <v>8.717391886317886</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.32019243644066</v>
+        <v>69.54747085339122</v>
       </c>
       <c r="D21" t="n">
-        <v>8.310251250642821</v>
+        <v>7.870695517428791</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.95041562461788</v>
+        <v>70.32376950204475</v>
       </c>
       <c r="D22" t="n">
-        <v>7.17252987416071</v>
+        <v>7.553470657523215</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.7898130283908</v>
+        <v>68.46691137179054</v>
       </c>
       <c r="D23" t="n">
-        <v>7.969290338961344</v>
+        <v>7.792775271615291</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.74972447685214</v>
+        <v>68.30502141966468</v>
       </c>
       <c r="D24" t="n">
-        <v>9.821522713156416</v>
+        <v>8.269332787721842</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.0757643432744</v>
+        <v>64.96802713176942</v>
       </c>
       <c r="D25" t="n">
-        <v>8.551646838905729</v>
+        <v>8.775484567240465</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.59170276159062</v>
+        <v>65.21499785766639</v>
       </c>
       <c r="D26" t="n">
-        <v>9.126579514563462</v>
+        <v>8.953710584280564</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.35852027365451</v>
+        <v>64.00325767099849</v>
       </c>
       <c r="D27" t="n">
-        <v>9.021800004279502</v>
+        <v>8.212055737148134</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.04553016932626</v>
+        <v>62.8947513552091</v>
       </c>
       <c r="D28" t="n">
-        <v>8.130656119239369</v>
+        <v>7.925009779580016</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>65.27879121298145</v>
+        <v>62.63703688715463</v>
       </c>
       <c r="D29" t="n">
-        <v>8.556163663294985</v>
+        <v>8.291839858808906</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.4692394918976</v>
+        <v>61.79207777639115</v>
       </c>
       <c r="D30" t="n">
-        <v>9.075868720644753</v>
+        <v>9.321719078718358</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.19318948955352</v>
+        <v>60.72769518998211</v>
       </c>
       <c r="D31" t="n">
-        <v>8.265998673269735</v>
+        <v>8.580248178466176</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.40060683414558</v>
+        <v>60.54645746355676</v>
       </c>
       <c r="D32" t="n">
-        <v>9.511120957989306</v>
+        <v>9.36662364329753</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.84727197129096</v>
+        <v>59.7213431121295</v>
       </c>
       <c r="D33" t="n">
-        <v>8.810030951693836</v>
+        <v>7.005155560730973</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.34314441250935</v>
+        <v>55.88661989671501</v>
       </c>
       <c r="D34" t="n">
-        <v>8.698166811267745</v>
+        <v>10.06417949803112</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.82193523592</v>
+        <v>56.535112321452</v>
       </c>
       <c r="D35" t="n">
-        <v>7.633474830760573</v>
+        <v>7.667526043406392</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.87448387981171</v>
+        <v>53.95447640809181</v>
       </c>
       <c r="D36" t="n">
-        <v>8.711690793854025</v>
+        <v>8.90257325200675</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.21345320230763</v>
+        <v>54.69699898518589</v>
       </c>
       <c r="D37" t="n">
-        <v>8.878800932976477</v>
+        <v>8.559748246769358</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.34946485657991</v>
+        <v>53.37207331796239</v>
       </c>
       <c r="D38" t="n">
-        <v>8.827780913254015</v>
+        <v>7.65085212952486</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.29358948661554</v>
+        <v>52.22672582728202</v>
       </c>
       <c r="D39" t="n">
-        <v>9.579477830181634</v>
+        <v>9.124948088075255</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.38707530617976</v>
+        <v>53.46021925151123</v>
       </c>
       <c r="D40" t="n">
-        <v>9.436044830063535</v>
+        <v>8.303074985649459</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.51172701745161</v>
+        <v>50.68602767391361</v>
       </c>
       <c r="D41" t="n">
-        <v>7.523252856977869</v>
+        <v>8.887777957978559</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.4806425867371</v>
+        <v>48.65915828932043</v>
       </c>
       <c r="D42" t="n">
-        <v>8.485976936625054</v>
+        <v>9.618489530805563</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.2616556475033</v>
+        <v>50.03789249941156</v>
       </c>
       <c r="D43" t="n">
-        <v>7.860239959317299</v>
+        <v>9.161601274195807</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.58855845051325</v>
+        <v>46.76171795875963</v>
       </c>
       <c r="D44" t="n">
-        <v>8.477504339969254</v>
+        <v>8.653493840539982</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>45.87495133721372</v>
+        <v>48.38197260576395</v>
       </c>
       <c r="D45" t="n">
-        <v>9.957055929826515</v>
+        <v>8.20076270497294</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.84629381338326</v>
+        <v>44.97934934028464</v>
       </c>
       <c r="D46" t="n">
-        <v>9.09052271407837</v>
+        <v>8.418145168727886</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.93503363503579</v>
+        <v>45.14090899118592</v>
       </c>
       <c r="D47" t="n">
-        <v>9.074486001714304</v>
+        <v>8.289714323834572</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.3669743601813</v>
+        <v>43.83567731770736</v>
       </c>
       <c r="D48" t="n">
-        <v>9.37902364390278</v>
+        <v>8.577480798168116</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>41.58010800220804</v>
+        <v>42.0228827679407</v>
       </c>
       <c r="D49" t="n">
-        <v>9.112781168414255</v>
+        <v>8.574005535304419</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.3293051044449</v>
+        <v>41.61353218249181</v>
       </c>
       <c r="D50" t="n">
-        <v>9.423051450260861</v>
+        <v>8.764252387900594</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.37465322541416</v>
+        <v>40.86764772890371</v>
       </c>
       <c r="D51" t="n">
-        <v>8.671806223492466</v>
+        <v>9.482344216877578</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.13690806161102</v>
+        <v>39.79842444048444</v>
       </c>
       <c r="D52" t="n">
-        <v>9.135651100928532</v>
+        <v>9.774838224926816</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>37.26400618423243</v>
+        <v>39.45817576245662</v>
       </c>
       <c r="D53" t="n">
-        <v>8.459933402826799</v>
+        <v>9.649545485680559</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.89912509700578</v>
+        <v>37.53590343079138</v>
       </c>
       <c r="D54" t="n">
-        <v>8.909870502447991</v>
+        <v>9.366500992935352</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.44508333542107</v>
+        <v>36.78310252952377</v>
       </c>
       <c r="D55" t="n">
-        <v>10.15954121286261</v>
+        <v>8.430085380715193</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.95239191184682</v>
+        <v>35.52721117159749</v>
       </c>
       <c r="D56" t="n">
-        <v>9.021354486101936</v>
+        <v>9.665429434110797</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.76228238808885</v>
+        <v>35.15556053994978</v>
       </c>
       <c r="D57" t="n">
-        <v>9.964154349142495</v>
+        <v>8.131620605590442</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.05326243552998</v>
+        <v>33.93108131006153</v>
       </c>
       <c r="D58" t="n">
-        <v>9.106319552346264</v>
+        <v>9.584449694821689</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.67272810900513</v>
+        <v>32.32262963233163</v>
       </c>
       <c r="D59" t="n">
-        <v>9.597562245790369</v>
+        <v>8.297412747906904</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.43751649316977</v>
+        <v>31.7486107196799</v>
       </c>
       <c r="D60" t="n">
-        <v>10.23685106792417</v>
+        <v>8.749915393988147</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.63298015763378</v>
+        <v>30.51070842343013</v>
       </c>
       <c r="D61" t="n">
-        <v>9.021582613410295</v>
+        <v>8.117309203319838</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.6132583954215</v>
+        <v>28.92380097030227</v>
       </c>
       <c r="D62" t="n">
-        <v>9.389713305885801</v>
+        <v>8.942697879799326</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.33410220711767</v>
+        <v>28.02079338890586</v>
       </c>
       <c r="D63" t="n">
-        <v>9.785042727943694</v>
+        <v>9.498738757898581</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.98127666938995</v>
+        <v>28.28459065565831</v>
       </c>
       <c r="D64" t="n">
-        <v>9.178681026744513</v>
+        <v>9.303915376280329</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.41875765008782</v>
+        <v>26.75967905397025</v>
       </c>
       <c r="D65" t="n">
-        <v>10.19271209379987</v>
+        <v>7.819495886677544</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>24.76899303253629</v>
+        <v>27.38230367139424</v>
       </c>
       <c r="D66" t="n">
-        <v>7.822956790627148</v>
+        <v>8.816585601413415</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.97250107299436</v>
+        <v>25.52890699296276</v>
       </c>
       <c r="D67" t="n">
-        <v>8.390258251511483</v>
+        <v>8.215691788962813</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.34119523567537</v>
+        <v>24.12793116397576</v>
       </c>
       <c r="D68" t="n">
-        <v>9.89591932038808</v>
+        <v>10.32549372545203</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>24.97076462181459</v>
+        <v>22.14434824456693</v>
       </c>
       <c r="D69" t="n">
-        <v>9.163121171391333</v>
+        <v>7.957829179122673</v>
       </c>
     </row>
   </sheetData>
